--- a/Documents/ObjectiveWeights.xlsx
+++ b/Documents/ObjectiveWeights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aceda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycestandley/GIT/ICT371-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E892C4-03A6-40F6-A52D-0284FFEE5E16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048DE810-CC6F-BD44-898B-F5F0699D94AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14976" yWindow="-9048" windowWidth="12960" windowHeight="10128" xr2:uid="{4B881EF5-5604-1344-A854-2278F0A1A393}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{4B881EF5-5604-1344-A854-2278F0A1A393}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,9 +50,6 @@
     <t>Tree Planting</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Laundry Collection</t>
   </si>
   <si>
@@ -220,6 +219,9 @@
   </si>
   <si>
     <t>Fish</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
@@ -587,21 +589,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4E54C-5428-F044-BAA3-065852A0F7B7}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="5" max="5" width="33.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,16 +617,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>99</v>
       </c>
@@ -632,629 +634,629 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5">
         <v>0.1</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="6"/>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
         <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D5" s="6"/>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5">
         <v>0.1</v>
       </c>
       <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6">
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6">
         <v>0.15</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6">
         <v>0.15</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6">
         <v>0.2</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>92</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D43" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D45" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="6">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="6">
         <v>0.8</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D50" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="5">
         <v>0.05</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6">
         <f>D4+D6+D11+D23+D27+D31+D36+D45+D50+D54+D56+D58</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="6"/>
     </row>
   </sheetData>
